--- a/biology/Botanique/Isoprothallie/Isoprothallie.xlsx
+++ b/biology/Botanique/Isoprothallie/Isoprothallie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’isoprothallie (parfois appelé homoprothallie), par opposition à l'hétéroprothallie, désigne un état caractéristique dans lequel le prothalle est bisexué (hermaphrodisme), c'est-à-dire le gamétophyte haploïde du cycle de vie des Ptéridophytes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il comporte à la fois des gamétanges mâles (anthéridies) et femelles (archégones). Ces gamétanges produiront des gamètes mâles (anthérozoïdes, maintenant appelés spermatozoïdes végétaux) et femelles (oosphères).
 Malgré le fait que ces prothalles soient bisexués, ils ne se fécondent pas eux-mêmes mais trouvent un autre prothalle avec lequel la fécondation a lieu, ce qui redonne un sporophyte fonctionnel (à 2n chromosomes), capable à son tour de fabriquer des spores par méiospore. Cette recherche de fécondation croisée est appréciable sur le plan évolutif, car elle permet une plus grande diversité et adaptation des organismes à leur milieu, alors qu'une auto-fécondation (autogamie) réduit considérablement la diversité, surtout sur le long terme.
